--- a/results_loading_times/instance_25_times.xlsx
+++ b/results_loading_times/instance_25_times.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,72 +457,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,69 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
